--- a/data files/Purchase Order/viggo.xlsx
+++ b/data files/Purchase Order/viggo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC8CB84-41FF-4649-B935-EA26CCB3122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA97C5D-3089-4DCA-A470-143052558FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="0" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORDER-FORM" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Viggoflon-18g</t>
   </si>
@@ -168,17 +168,23 @@
     <t>Ph.:  97193-04441</t>
   </si>
   <si>
-    <t>18/09/24</t>
-  </si>
-  <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>Viggoclear-6 Prime, Adult</t>
+  </si>
+  <si>
+    <t>Viggoclear-6 Prime, Paed</t>
+  </si>
+  <si>
+    <t>Yankaur Suction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +278,19 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -303,11 +322,24 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
       <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -315,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -344,16 +376,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -364,7 +386,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -389,13 +421,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>19052</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>38097</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1177291</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1704976</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38097</xdr:rowOff>
     </xdr:to>
@@ -413,9 +445,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19051" y="819147"/>
-          <a:ext cx="2377440" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="19052" y="809625"/>
+          <a:ext cx="2295524" cy="9522"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -723,50 +755,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="3"/>
-    <col min="3" max="3" width="38.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="3"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="39.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="12.85546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:5" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="3"/>
@@ -775,8 +808,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="3"/>
@@ -785,24 +818,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="D7" s="8"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="E8" s="26">
+        <v>45750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="1"/>
@@ -810,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="E9" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
@@ -824,351 +857,458 @@
         <v>15</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="14" t="s">
+    </row>
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24">
+        <v>500</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>3</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="24">
+        <v>300</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>4</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="24">
+        <v>100</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="24">
+        <v>100</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>6</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>7</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>8</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="24">
+        <v>100</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>10</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>11</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>12</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>13</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>14</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>15</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>16</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
+        <v>17</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="21">
+        <v>18</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
+        <v>19</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>20</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
+        <v>21</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="24">
+        <v>500</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>22</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
+        <v>23</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>24</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>25</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>26</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>27</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>28</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>29</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>30</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>31</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
+        <v>32</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
         <v>33</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17" t="s">
+      <c r="B45" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
         <v>34</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="B46" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.31" bottom="0.12" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>